--- a/project/scrum/用户故事.xlsx
+++ b/project/scrum/用户故事.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASoftWareProjectEv\SoftwareEngineering\project\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王忽忽\Desktop\SoftwareEngineering\project\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD09AFA-6757-4E87-98F3-213178663837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADBC0B0-8471-4367-80F7-88587DED1A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>编号</t>
   </si>
@@ -161,6 +161,115 @@
   </si>
   <si>
     <t>点击评论的按钮，即可进行评论。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>作为一个高中生，我希望用QQ或者微信来登录这个软件，以便于我安全快捷的使用该软件。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传错题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个时间比较紧的高中生，我希望上传我平时的错题，以便于减少我在本子上手抄错题、整理错题的时间。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看错题集</t>
+  </si>
+  <si>
+    <t>作为一个高中生，我希望通过学科、模块等条件搜索我上传的错题集，以便于减少翻找错题的时间。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题重做</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个热爱学习的高中生，我希望重做我上传的错题，以便于重新回顾知识点、重点题型。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个较真的高中生，我希望能在我重做错题时，有时间限制，以便于我更好的提高学习效率。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时重做</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改错题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印错题</t>
+  </si>
+  <si>
+    <t>相关题型推荐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主组卷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除错题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个高中生，我希望修改已上传的错题，以便于更改自己拍照上传时填写的错误。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个高中生，我希望删除我已掌握的错题，以便于清晰认识自己的掌握情况。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个高中生，我希望打印我上传的所有或者部分错题，以便于我可以在考前高效的回顾、记忆。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个高中生，我希望对于错题重做错误率高的题，有相关题型推荐，以便于更好的掌握对应知识点或题型。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个好学的高中生，我希望对我已上传的错题进行随机组卷，以便于我更好的了解自己的掌握情况。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在登录时，可以选择QQ或者微信登录方式，将账号关联到QQ或者微信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上传错题按钮，可以选择拍照或者语音上传，并有多种错题分类按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击查看错题按钮，可以看到所有的错题或者按某个条件查看错题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击某一道错题，进入错题重做页面，可以显示出错题题目，并显示答题空间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击某一道错题，进入错题重做页面，该页面上悬浮一倒计时时钟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个高中生，我希望可以通过多种方式找回密码，以便于我安全方便的使用该软件。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在找回密码时，可以用绑定的手机号或邮箱，向用户发送验证码，设置新密码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,15 +360,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -278,9 +378,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -296,9 +393,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -310,6 +404,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,315 +750,459 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="38.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="6" t="s">
+      <c r="B2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="19">
+        <v>96</v>
+      </c>
+      <c r="E2" s="19">
+        <v>2</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="19">
+        <v>74</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="30">
+        <v>98</v>
+      </c>
+      <c r="E4" s="19">
+        <v>4</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="30">
+        <v>94</v>
+      </c>
+      <c r="E5" s="19">
+        <v>3</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="30">
+        <v>92</v>
+      </c>
+      <c r="E6" s="19">
+        <v>2</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="30">
+        <v>72</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
+    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="24">
+        <v>86</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="24">
+        <v>84</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="24">
+        <v>82</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="24">
+        <v>76</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="24">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="23">
+        <v>88</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="23">
         <v>90</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="G16" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="23">
         <v>89</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="G17" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="23">
         <v>82</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="23">
         <v>87</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="G19" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="40.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="23">
         <v>84</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="G20" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="23">
         <v>92</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="9" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="9" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="9" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -942,7 +1219,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -955,7 +1232,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/scrum/用户故事.xlsx
+++ b/project/scrum/用户故事.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王忽忽\Desktop\SoftwareEngineering\project\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADBC0B0-8471-4367-80F7-88587DED1A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DC3B25-5819-4A7C-B73C-AFB2D4297A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/project/scrum/用户故事.xlsx
+++ b/project/scrum/用户故事.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王忽忽\Desktop\SoftwareEngineering\project\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DC3B25-5819-4A7C-B73C-AFB2D4297A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D3B4B6-C17B-40E7-96F2-C692F11847D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>编号</t>
   </si>
@@ -270,6 +270,38 @@
   </si>
   <si>
     <t>在找回密码时，可以用绑定的手机号或邮箱，向用户发送验证码，设置新密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案校对</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个高中生，我希望错题重做后可以自动校对答案，以便于我可以清楚了解自己对当次做的错题的掌握程度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改图标，根据要修改的内容选择合适标签进行修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按要删除题目，点击删除。或者进入题目详情页，点击修改按钮，选择删除选项进行删除错题。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击我的回顾按钮，系统会根据用户错题率高的题目进行经典题目推荐，可点击推荐题目，进行错题巩固训练</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击自主组卷按钮，系统会根据用户错题库进行随机出卷，出卷完毕后，用户可点击测试按钮进行做题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在错题重做页输入完答案后，点击答案校对，系统会校对输入的答案是否正确，并将详细答案显示在题目下方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击打印机图标，进入要打印题目选择页，选择要打印的题目（可全选），确定题目后，点击打印，系统连接打印机进行打印</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,19 +785,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -812,7 +847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>59</v>
@@ -855,7 +890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="19" t="s">
         <v>38</v>
@@ -876,7 +911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="19" t="s">
         <v>40</v>
@@ -897,7 +932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="19" t="s">
         <v>43</v>
@@ -930,7 +965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>44</v>
       </c>
@@ -940,11 +975,17 @@
       <c r="D9" s="24">
         <v>86</v>
       </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="G9" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>48</v>
       </c>
@@ -954,11 +995,17 @@
       <c r="D10" s="24">
         <v>84</v>
       </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="G10" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
@@ -968,11 +1015,17 @@
       <c r="D11" s="24">
         <v>82</v>
       </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="G11" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>46</v>
       </c>
@@ -985,11 +1038,14 @@
       <c r="E12" s="1">
         <v>3</v>
       </c>
+      <c r="F12" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="G12" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>47</v>
       </c>
@@ -1002,13 +1058,28 @@
       <c r="E13" s="1">
         <v>4</v>
       </c>
+      <c r="F13" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="G13" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="D14" s="23">
         <v>88</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>26</v>
@@ -1026,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="40.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +1117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="34.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
@@ -1066,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
@@ -1106,7 +1177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="40.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
@@ -1126,7 +1197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1290,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1232,7 +1303,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/scrum/用户故事.xlsx
+++ b/project/scrum/用户故事.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="135" uniqueCount="135">
   <si>
     <t xml:space="preserve">编号</t>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
@@ -59,6 +59,102 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">上传错题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一个时间比较紧的高中生，我希望上传我平时的错题，以便于减少我在本子上手抄错题、整理错题的时间。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <t xml:space="preserve">点击上传错题按钮，可以选择拍照或者语音上传，并有多种错题分类按钮</t>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Done</t>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">我的昵称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一名已注册登录用户，我希望能够随时更改我的昵称，以便更好激励自己</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点击昵称所在文本处，即可弹出选窗，点击修改昵称即进入修改昵称页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">我的头像</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一名已注册登录用户，我希望能够随时更改我的头像，以便更好激励自己</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点击头像图片所在处，即可弹出选框，选择头像更改方式即可，进入修改头像</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">登录</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
@@ -81,22 +177,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">在登录时，选择登录方式，输入信息，然后点击登录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Done</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">忘记密码</t>
+      <t xml:space="preserve">选择登录方式，输入信息，然后点击登录</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -107,22 +188,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一个高中生，我希望可以通过多种方式找回密码，以便于我安全方便的使用该软件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">在找回密码时，可以用绑定的手机号或邮箱，向用户发送验证码，设置新密码</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">上传错题</t>
+      <t xml:space="preserve">我的座右铭</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -133,12 +199,63 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一个时间比较紧的高中生，我希望上传我平时的错题，以便于减少我在本子上手抄错题、整理错题的时间。</t>
+      <t xml:space="preserve">作为一名已注册登录用户，我希望能够随时更改我的座右铭，以便更好激励自己</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
-    <t xml:space="preserve">点击上传错题按钮，可以选择拍照或者语音上传，并有多种错题分类按钮</t>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点击座右铭所在文本处，即可弹出选窗，点击修改座右铭即进入修改座右铭页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">地图定位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一名已注册登录用户，我希望能够随时查看自己的定位，以便于更好精确 自己的位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点击附近的人模块，即显示自己当前的定位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">Not Done</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
@@ -200,7 +317,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">计时重做</t>
+      <t xml:space="preserve">首页导航</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -211,16 +328,14 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一个较真的高中生，我希望能在我重做错题时，有时间限制，以便于我更好的提高学习效率。</t>
+      <t xml:space="preserve">作为一个软件客户，我希望可以有设计完善的导航页，以便
+于吸引用户的注意力。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
-    <t xml:space="preserve">点击某一道错题，进入错题重做页面，该页面上悬浮一倒计时时钟</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">王爽</t>
+    <t xml:space="preserve">打开软件，向左滑动三张
+导航图片，进入软件主页。</t>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
@@ -230,7 +345,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">修改错题</t>
+      <t xml:space="preserve">显示更多用户</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -241,7 +356,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一个高中生，我希望修改已上传的错题，以便于更改自己拍照上传时填写的错误。</t>
+      <t xml:space="preserve">作为一名已注册登录用户，我希望能够显示其他用户，以便激励自己</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -252,7 +367,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">在错题重做页右上角点击设置，然后点击修改错题，更改错题的所属学科、模块、题型等等信息</t>
+      <t xml:space="preserve">点击附近的人模块，即显示其他用户的位置</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -263,7 +378,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">删除错题</t>
+      <t xml:space="preserve">退出当前账号</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -274,7 +389,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一个高中生，我希望删除我已掌握的错题，以便于清晰认识自己的掌握情况。</t>
+      <t xml:space="preserve">作为一名有多个账号的用户，我希望能退出登录，以便我可以在多个账号之间进行切换</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -285,22 +400,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">长按要删除题目，点击删除。或者在错题重做页右上角点击设置，然后点击删除错题</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">打印错题</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">作为一个高中生，我希望打印我上传的所有或者部分错题，以便于我可以在考前高效的回顾、记忆。</t>
+      <t xml:space="preserve">点击界面三条横线，即可弹出选窗，点击退出登录即可</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -311,7 +411,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">在展示错题页面右上角点击打印机图标，然后选择要打印的错题，然后选择附近的打印机</t>
+      <t xml:space="preserve">学科视频讲解</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -322,7 +422,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">相关题型推荐</t>
+      <t xml:space="preserve">作为一名高中生用户，我希望可以快速查找到需要的学科内容，以便节省我的时间。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -333,88 +433,8 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一个高中生，我希望对于错题重做错误率高的题，有相关题型推荐，以便于更好的掌握对应知识点或题型。</t>
+      <t xml:space="preserve">高中主要学科内容展示，支持模糊搜索</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">点击相关题型按钮，按照已有的错题类型推荐题目</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">自主组卷</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">作为一个好学的高中生，我希望对我已上传的错题进行随机组卷，以便于我更好的了解自己的掌握情况。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="宋体"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">点击自主组卷按钮，随机将已有的错题进行组合，生成一套试卷</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">答案校对</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">作为一个高中生，我希望错题重做后可以自动校对答案，以便于我可以清楚了解自己对当次做的错题的掌握程度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">在错题重做页输入完答案后，点击答案校对，系统会校对输入的答案是否正确，并将详细答案显示在题目下方</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">杨柳鑫</t>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
@@ -472,7 +492,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">即时通信</t>
+      <t xml:space="preserve">答案校对</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -483,37 +503,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一个喜欢交朋友的客户，我希望能够了解周围人的信
-息，以便于即时的进行沟通和交流。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">点击评论的按钮，即可进行评论。</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">验证码验证</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">作为一个安全意识较强的客户，我希望注册时需要验证码
-进行验证，以便于保护个人信息。</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">在进行用户注册时，点击获取
-验证码，在1分钟内收到验证码。</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">官网的跳转</t>
+      <t xml:space="preserve">作为一个高中生，我希望错题重做后可以自动校对答案，以便于我可以清楚了解自己对当次做的错题的掌握程度</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -524,125 +514,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一个喜欢浏览网页的客户，我希望进入大学的官网浏览，以便于了解各大学的详情</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">点击大学的Logo,进入大
-学官网的首页。</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">首页导航</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">作为一个软件客户，我希望可以有设计完善的导航页，以便
-于吸引用户的注意力。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">打开软件，向左滑动三张
-导航图片，进入软件主页。</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">Not Done</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">刘鹏辉</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">郭伟</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">地图定位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">作为一名已注册登录用户，我希望能够随时查看自己的定位，以便于更好精确 自己的位置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">点击附近的人模块，即显示自己当前的定位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">显示更多用户</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">作为一名已注册登录用户，我希望能够显示其他用户，以便激励自己</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">点击附近的人模块，即显示其他用户的位置</t>
+      <t xml:space="preserve">在错题重做页输入完答案后，点击答案校对，系统会校对输入的答案是否正确，并将详细答案显示在题目下方</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -686,7 +558,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">用户分享</t>
+      <t xml:space="preserve">我的关注</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -697,7 +569,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一名已注册登录用户，我希望能够显示其他用户的经验分享，以便于自己学到更多的知识，增长更多经验</t>
+      <t xml:space="preserve">作为一名已注册登录用户，我希望能够查看我的关注，以便更好地与更优秀的朋友交流</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -708,7 +580,32 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">点击用户分享，即进入该用户的分享列表页查看分享</t>
+      <t xml:space="preserve">点击我的关注，即进入我的粉丝列表，点击每一项都会跳转到个人详情</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <t xml:space="preserve">验证码验证</t>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <t xml:space="preserve">作为一个安全意识较强的客户，我希望注册时需要验证码
+进行验证，以便于保护个人信息。</t>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在进行用户注册时，点击获取
+验证码，在1分钟内收到验证码。</t>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">修改错题</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -719,7 +616,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">对于分享的评论</t>
+      <t xml:space="preserve">作为一个高中生，我希望修改已上传的错题，以便于更改自己拍照上传时填写的错误。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -730,7 +627,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一名已注册登录用户，我希望能够对其他用户的分享进行评论，以便于答疑解惑</t>
+      <t xml:space="preserve">在错题重做页右上角点击设置，然后点击修改错题，更改错题的所属学科、模块、题型等等信息</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -741,7 +638,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">点击评论按钮，即对该分享内容进行评论与回复</t>
+      <t xml:space="preserve">精品课程推荐</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -752,7 +649,8 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">点赞用户</t>
+      <t xml:space="preserve">作为一名高中生用户，我希望可以学习到当前最优质的资源，以便最
+高效的吸收知识。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -763,7 +661,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一名已注册登录用户，我希望能够对其他用户进行点赞，以便于鼓励他人</t>
+      <t xml:space="preserve">点击换一批可以切换精品课程，进入之后可以观看精品课程。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -773,53 +671,6 @@
         <rFont val="SimSun"/>
         <sz val="11.0"/>
         <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">点击点赞手势，即对该用户进行点赞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">吕怡浩</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">我的昵称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">作为一名已注册登录用户，我希望能够随时更改我的昵称，以便更好激励自己</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">点击昵称所在文本处，即可弹出选窗，点击修改昵称即进入修改昵称页面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="宋体"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">我的粉丝</t>
     </r>
@@ -854,7 +705,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">我的关注</t>
+      <t xml:space="preserve">删除错题</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -865,7 +716,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一名已注册登录用户，我希望能够查看我的关注，以便更好地与更优秀的朋友交流</t>
+      <t xml:space="preserve">作为一个高中生，我希望删除我已掌握的错题，以便于清晰认识自己的掌握情况。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -876,8 +727,187 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">点击我的关注，即进入我的粉丝列表，点击每一项都会跳转到个人详情</t>
+      <t xml:space="preserve">长按要删除题目，点击删除。或者在错题重做页右上角点击设置，然后点击删除错题</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">官网的跳转</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一个喜欢浏览网页的客户，我希望进入大学的官网浏览，以便于了解各大学的详情</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <t xml:space="preserve">点击大学的Logo,进入大
+学官网的首页。</t>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">客服咨询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一名购买者，我希望购买之前可以了解到课程的相关信息，以便
+加深我购买欲望。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="宋体"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">点击客服进行咨询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">学习课程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一名高中生用户，我希望能够查看我收藏的学习课程，以便日后继续学习</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点击学习课程，可以查看收藏的课程列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">用户分享</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一名已注册登录用户，我希望能够显示其他用户的经验分享，以便于自己学到更多的知识，增长更多经验</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点击用户分享，即进入该用户的分享列表页查看分享</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <t xml:space="preserve">打印错题</t>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一个高中生，我希望打印我上传的所有或者部分错题，以便于我可以在考前高效的回顾、记忆。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">在展示错题页面右上角点击打印机图标，然后选择要打印的错题，然后选择附近的打印机</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">即时通信</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一个喜欢交朋友的客户，我希望能够了解周围人的信
+息，以便于即时的进行沟通和交流。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <t xml:space="preserve">点击评论的按钮，即可进行评论。</t>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
@@ -904,6 +934,171 @@
   </si>
   <si>
     <t xml:space="preserve">点击我的成就，可以查看我的成就</t>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">优质图书推荐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一名高中生用户，我希望我不仅在此学到高中知识，还希望看到
+经典书籍，以便陶冶我的情操。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点击更多查看更多经典图书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">自主组卷</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一个好学的高中生，我希望对我已上传的错题进行随机组卷，以便于我更好的了解自己的掌握情况。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="宋体"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">点击自主组卷按钮，随机将已有的错题进行组合，生成一套试卷</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">关于版本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一名无聊的用户，我希望能够检测我的应用是否是最新版本，以便我可以在错过更新提醒时依然能及时更新应用。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点击检查更新按钮进行应用版本的比对。如果不同进行更新</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">相关题型推荐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一个高中生，我希望对于错题重做错误率高的题，有相关题型推荐，以便于更好的掌握对应知识点或题型。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点击相关题型按钮，按照已有的错题类型推荐题目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">精美菜单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一名已注册登录用户，我希望能够有一个精美的菜单，以便于赏心悦目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点击菜单按钮，即对展开炫酷菜单</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
@@ -946,7 +1141,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">学习课程</t>
+      <t xml:space="preserve">我的积分</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -957,7 +1152,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一名高中生用户，我希望能够查看我收藏的学习课程，以便日后继续学习</t>
+      <t xml:space="preserve">作为一名高中生用户，我希望可以记录我的学习积分，以激励我经常使用错题本</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -968,22 +1163,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">点击学习课程，可以查看收藏的课程列表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <t xml:space="preserve">单鑫楠</t>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="SimSun"/>
-        <sz val="11.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">关于版本</t>
+      <t xml:space="preserve">累计足够积分即可解锁相应成就，点击成就界面即可查询</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -994,7 +1174,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一名无聊的用户，我希望能够检测我的应用是否是最新版本，以便我可以在错过更新提醒时依然能及时更新应用。</t>
+      <t xml:space="preserve">忘记密码</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -1005,7 +1185,22 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">我的头像</t>
+      <t xml:space="preserve">作为一个高中生，我希望可以通过多种方式找回密码，以便于我安全方便的使用该软件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在找回密码时，可以用绑定的手机号或邮箱，向用户发送验证码，设置新密码</t>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">夜间模式</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -1016,7 +1211,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一名已注册登录用户，我希望能够随时更改我的头像，以便更好激励自己</t>
+      <t xml:space="preserve">作为一名高中生用户，我希望晚上学习的时候可以保护眼睛，以便我在夜间也可以快乐学习。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -1027,7 +1222,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">我的座右铭</t>
+      <t xml:space="preserve">点击按钮切换夜间模式</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -1038,7 +1233,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一名已注册登录用户，我希望能够随时更改我的座右铭，以便更好激励自己</t>
+      <t xml:space="preserve">计时重做</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -1049,17 +1244,22 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">退出当前账号</t>
+      <t xml:space="preserve">作为一个较真的高中生，我希望能在我重做错题时，有时间限制，以便于我更好的提高学习效率。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <t xml:space="preserve">点击某一道错题，进入错题重做页面，该页面上悬浮一倒计时时钟</t>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="宋体"/>
+        <rFont val="SimSun"/>
         <sz val="11.0"/>
+        <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">作为一名有多个账号的用户，我希望能退出登录，以便我可以在多个账号之间进行切换</t>
+      <t xml:space="preserve">轮播图</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -1070,7 +1270,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">我的积分</t>
+      <t xml:space="preserve">作为一名高中生用户，我希望可以看到名校的风景，以便我有学习下去的不懈动力。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -1080,7 +1280,40 @@
         <rFont val="宋体"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">作为一名高中生用户，我希望可以记录我的学习积分，以激励我经常使用错题本</t>
+      <t xml:space="preserve">轮播中国大学秀丽风景。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点赞用户</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">作为一名已注册登录用户，我希望能够对其他用户进行点赞，以便于鼓励他人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="SimSun"/>
+        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">点击点赞手势，即对该用户进行点赞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -1113,7 +1346,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">金鑫媛</t>
+      <t xml:space="preserve">点击推荐大学即可查看对应推荐的大学的列表</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -1237,13 +1470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFBDD7EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD2DAE4"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,16 +1491,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD2DAE4"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFD2DAE4"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFD2DAE4"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFD2DAE4"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1277,7 +1510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1347,32 +1580,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
       <alignment horizontal="general" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
       <alignment horizontal="general" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
-      <alignment horizontal="general" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -1380,32 +1607,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
-      <alignment horizontal="general" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -1413,11 +1619,29 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
+      <alignment horizontal="general" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
+      <alignment horizontal="general" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1770,7 +1994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
-  <dimension ref="A1:AA201"/>
+  <dimension ref="A1:AA193"/>
   <sheetViews>
     <sheetView showGridLines="true" view="normal" zoomScale="100" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1849,26 +2073,28 @@
       <c r="AA1" s="26"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" customHeight="true">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="23" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="E2" s="23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="D2" s="30" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="E2" s="27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -1890,64 +2116,68 @@
       <c r="AA2" s="26"/>
     </row>
     <row r="3" spans="1:27" ht="28.005000000000006" customHeight="true">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="23" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="E3" s="23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F3" s="31" t="s">
+      <c r="D3" s="27" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="E3" s="27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
     </row>
     <row r="4" spans="1:27" ht="33.0" customHeight="true">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="32" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="E4" s="23" t="n">
+      <c r="D4" s="27" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="E4" s="27" t="n">
         <v>4.0</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="26"/>
@@ -1972,23 +2202,25 @@
       <c r="AA4" s="26"/>
     </row>
     <row r="5" spans="1:27" ht="28.005000000000006" customHeight="true">
-      <c r="A5" s="34"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="32" t="n">
+      <c r="D5" s="27" t="n">
         <v>94.0</v>
       </c>
-      <c r="E5" s="23" t="n">
-        <v>3.0</v>
+      <c r="E5" s="27" t="n">
+        <v>2.0</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="26"/>
@@ -2013,23 +2245,25 @@
       <c r="AA5" s="26"/>
     </row>
     <row r="6" spans="1:27" ht="28.005000000000006" customHeight="true">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="32" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="E6" s="23" t="n">
-        <v>2.0</v>
+      <c r="D6" s="27" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="E6" s="27" t="n">
+        <v>1.0</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="28" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="26"/>
@@ -2054,24 +2288,26 @@
       <c r="AA6" s="26"/>
     </row>
     <row r="7" spans="1:27" ht="28.005000000000006" customHeight="true">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="32" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="E7" s="23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="33" t="s">
+      <c r="D7" s="27" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="E7" s="34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>10</v>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
@@ -2094,17 +2330,29 @@
       <c r="Z7" s="26"/>
       <c r="AA7" s="26"/>
     </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="38" t="s">
-        <v>26</v>
-      </c>
+    <row r="8" spans="1:27" ht="37.5" customHeight="true">
+      <c r="A8" s="27" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="30" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E8" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -2125,24 +2373,26 @@
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
     </row>
-    <row r="9" spans="1:27" ht="37.5" customHeight="true">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="32" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="E9" s="23" t="n">
+    <row r="9" spans="1:27" ht="28.005000000000006" customHeight="true">
+      <c r="A9" s="27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="30" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E9" s="27" t="n">
         <v>2.0</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="26"/>
@@ -2166,25 +2416,27 @@
       <c r="Z9" s="26"/>
       <c r="AA9" s="26"/>
     </row>
-    <row r="10" spans="1:27" ht="28.005000000000006" customHeight="true">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="32" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="E10" s="23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>10</v>
+    <row r="10" spans="1:27" ht="27.0" customHeight="true">
+      <c r="A10" s="27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="27" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E10" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -2207,25 +2459,27 @@
       <c r="Z10" s="26"/>
       <c r="AA10" s="26"/>
     </row>
-    <row r="11" spans="1:27" ht="27.0" customHeight="true">
-      <c r="A11" s="25"/>
-      <c r="B11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="32" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="E11" s="23" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>10</v>
+    <row r="11" spans="1:27" ht="28.005000000000006" customHeight="true">
+      <c r="A11" s="27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E11" s="30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -2249,23 +2503,25 @@
       <c r="AA11" s="26"/>
     </row>
     <row r="12" spans="1:27" ht="28.005000000000006" customHeight="true">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="32" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="E12" s="23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="A12" s="27" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="27" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="E12" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="26"/>
@@ -2289,25 +2545,27 @@
       <c r="Z12" s="26"/>
       <c r="AA12" s="26"/>
     </row>
-    <row r="13" spans="1:27" ht="28.005000000000006" customHeight="true">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="32" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="E13" s="23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>10</v>
+    <row r="13" spans="1:27" ht="31.5" customHeight="true">
+      <c r="A13" s="27" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="E13" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
@@ -2330,24 +2588,26 @@
       <c r="Z13" s="26"/>
       <c r="AA13" s="26"/>
     </row>
-    <row r="14" spans="1:27" ht="42.75" customHeight="true">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="23" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="E14" s="23" t="n">
+    <row r="14" spans="1:27" ht="33.75" customHeight="true">
+      <c r="A14" s="28" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="27" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E14" s="27" t="n">
         <v>4.0</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="26"/>
@@ -2371,17 +2631,29 @@
       <c r="Z14" s="26"/>
       <c r="AA14" s="26"/>
     </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="38" t="s">
-        <v>45</v>
-      </c>
+    <row r="15" spans="1:27" ht="34.755" customHeight="true">
+      <c r="A15" s="27" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="27" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E15" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -2402,24 +2674,26 @@
       <c r="Z15" s="26"/>
       <c r="AA15" s="26"/>
     </row>
-    <row r="16" spans="1:27" ht="40.252500000000005" customHeight="true">
-      <c r="A16" s="39"/>
-      <c r="B16" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="23" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="E16" s="23" t="n">
+    <row r="16" spans="1:27" ht="39.75" customHeight="true">
+      <c r="A16" s="28" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="27" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E16" s="27" t="n">
         <v>4.0</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="26"/>
@@ -2443,25 +2717,27 @@
       <c r="Z16" s="26"/>
       <c r="AA16" s="26"/>
     </row>
-    <row r="17" spans="1:27" ht="34.755" customHeight="true">
-      <c r="A17" s="39"/>
-      <c r="B17" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="23" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="E17" s="23" t="n">
+    <row r="17" spans="1:27" ht="32.4" customHeight="true">
+      <c r="A17" s="27" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="E17" s="30" t="n">
         <v>2.0</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>10</v>
+      <c r="F17" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -2484,24 +2760,26 @@
       <c r="Z17" s="26"/>
       <c r="AA17" s="26"/>
     </row>
-    <row r="18" spans="1:27" ht="31.2525" customHeight="true">
-      <c r="A18" s="39"/>
-      <c r="B18" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="23" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="E18" s="23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="23" t="s">
+    <row r="18" spans="1:27" ht="40.252500000000005" customHeight="true">
+      <c r="A18" s="28" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="27" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E18" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="26"/>
@@ -2525,24 +2803,26 @@
       <c r="Z18" s="26"/>
       <c r="AA18" s="26"/>
     </row>
-    <row r="19" spans="1:27" ht="32.4" customHeight="true">
-      <c r="A19" s="39"/>
-      <c r="B19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="23" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="E19" s="23" t="n">
+    <row r="19" spans="1:27" ht="36.652499999999996" customHeight="true">
+      <c r="A19" s="27" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="27" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E19" s="27" t="n">
         <v>2.0</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="26"/>
@@ -2566,24 +2846,26 @@
       <c r="Z19" s="26"/>
       <c r="AA19" s="26"/>
     </row>
-    <row r="20" spans="1:27" ht="40.252500000000005" customHeight="true">
-      <c r="A20" s="39"/>
-      <c r="B20" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="23" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="E20" s="23" t="n">
-        <v>1.0</v>
+    <row r="20" spans="1:27">
+      <c r="A20" s="28" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="30" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="E20" s="27" t="n">
+        <v>2.0</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="26"/>
@@ -2607,25 +2889,27 @@
       <c r="Z20" s="26"/>
       <c r="AA20" s="26"/>
     </row>
-    <row r="21" spans="1:27" ht="36.652499999999996" customHeight="true">
-      <c r="A21" s="39"/>
-      <c r="B21" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="23" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="E21" s="23" t="n">
+    <row r="21" spans="1:27">
+      <c r="A21" s="27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="27" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E21" s="27" t="n">
         <v>2.0</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
@@ -2649,16 +2933,28 @@
       <c r="AA21" s="26"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="A22" s="28" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="27" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E22" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
@@ -2680,13 +2976,27 @@
       <c r="AA22" s="26"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="39"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="23"/>
+      <c r="A23" s="27" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="30" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E23" s="27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
@@ -2709,13 +3019,27 @@
       <c r="AA23" s="26"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="39"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="23"/>
+      <c r="A24" s="28" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="27" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E24" s="27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
@@ -2738,13 +3062,27 @@
       <c r="AA24" s="26"/>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="39"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="23"/>
+      <c r="A25" s="27" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="27" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E25" s="27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
@@ -2766,14 +3104,28 @@
       <c r="Z25" s="26"/>
       <c r="AA25" s="26"/>
     </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="39"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="23"/>
+    <row r="26" spans="1:27" ht="30.0" customHeight="true">
+      <c r="A26" s="28" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="27" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E26" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
@@ -2796,13 +3148,27 @@
       <c r="AA26" s="26"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="39"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="23"/>
+      <c r="A27" s="27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="27" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E27" s="27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
@@ -2825,13 +3191,27 @@
       <c r="AA27" s="26"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="39"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="23"/>
+      <c r="A28" s="28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="30" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E28" s="27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
@@ -2854,16 +3234,28 @@
       <c r="AA28" s="26"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="A29" s="27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="27" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E29" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -2884,25 +3276,27 @@
       <c r="Z29" s="26"/>
       <c r="AA29" s="26"/>
     </row>
-    <row r="30" spans="1:27" ht="30.0" customHeight="true">
-      <c r="A30" s="39"/>
-      <c r="B30" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="23" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="E30" s="43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>64</v>
+    <row r="30" spans="1:27">
+      <c r="A30" s="28" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="27" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E30" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
@@ -2925,25 +3319,27 @@
       <c r="Z30" s="26"/>
       <c r="AA30" s="26"/>
     </row>
-    <row r="31" spans="1:27">
-      <c r="A31" s="39"/>
-      <c r="B31" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="23" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="E31" s="32" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>64</v>
+    <row r="31" spans="1:27" ht="31.5" customHeight="true">
+      <c r="A31" s="28" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="27" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E31" s="27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
@@ -2967,24 +3363,26 @@
       <c r="AA31" s="26"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="39"/>
-      <c r="B32" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="23" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="E32" s="32" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>64</v>
+      <c r="A32" s="27" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="30" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E32" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
@@ -3008,24 +3406,26 @@
       <c r="AA32" s="26"/>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="39"/>
-      <c r="B33" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="23" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="E33" s="23" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>64</v>
+      <c r="A33" s="28" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="27" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E33" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
@@ -3049,24 +3449,26 @@
       <c r="AA33" s="26"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="39"/>
-      <c r="B34" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="23" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="E34" s="25" t="n">
+      <c r="A34" s="27" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="30" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E34" s="27" t="n">
         <v>3.0</v>
       </c>
-      <c r="F34" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>64</v>
+      <c r="F34" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
@@ -3090,24 +3492,26 @@
       <c r="AA34" s="26"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="39"/>
-      <c r="B35" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="23" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="E35" s="23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>64</v>
+      <c r="A35" s="28" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="27" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E35" s="28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
@@ -3131,16 +3535,28 @@
       <c r="AA35" s="26"/>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="38" t="s">
-        <v>85</v>
-      </c>
+      <c r="A36" s="27" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="27" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E36" s="27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="26"/>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
@@ -3161,24 +3577,26 @@
       <c r="Z36" s="26"/>
       <c r="AA36" s="26"/>
     </row>
-    <row r="37" spans="1:27" ht="31.5" customHeight="true">
-      <c r="A37" s="39"/>
-      <c r="B37" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="23" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="E37" s="23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="25" t="s">
+    <row r="37" spans="1:27">
+      <c r="A37" s="28" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="27" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E37" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="28" t="s">
         <v>10</v>
       </c>
       <c r="H37" s="26"/>
@@ -3203,23 +3621,25 @@
       <c r="AA37" s="26"/>
     </row>
     <row r="38" spans="1:27">
-      <c r="A38" s="39"/>
-      <c r="B38" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="23" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="E38" s="23" t="n">
+      <c r="A38" s="27" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="27" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E38" s="27" t="n">
         <v>2.0</v>
       </c>
-      <c r="F38" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="25" t="s">
+      <c r="F38" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="26"/>
@@ -3244,24 +3664,26 @@
       <c r="AA38" s="26"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="39"/>
-      <c r="B39" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="23" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="E39" s="23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>10</v>
+      <c r="A39" s="28" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E39" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
@@ -3285,23 +3707,25 @@
       <c r="AA39" s="26"/>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="39"/>
-      <c r="B40" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="23" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="E40" s="23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F40" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="25" t="s">
+      <c r="A40" s="27" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="30" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E40" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H40" s="26"/>
@@ -3326,24 +3750,26 @@
       <c r="AA40" s="26"/>
     </row>
     <row r="41" spans="1:27">
-      <c r="A41" s="39"/>
-      <c r="B41" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="23" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="E41" s="23" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>10</v>
+      <c r="A41" s="28" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="27" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E41" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
@@ -3367,24 +3793,26 @@
       <c r="AA41" s="26"/>
     </row>
     <row r="42" spans="1:27">
-      <c r="A42" s="39"/>
-      <c r="B42" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="23" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="E42" s="23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>10</v>
+      <c r="A42" s="28" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="27" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E42" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
@@ -3408,16 +3836,28 @@
       <c r="AA42" s="26"/>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="38" t="s">
-        <v>104</v>
-      </c>
+      <c r="A43" s="28" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E43" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="26"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
@@ -3439,23 +3879,13 @@
       <c r="AA43" s="26"/>
     </row>
     <row r="44" spans="1:27">
-      <c r="A44" s="39"/>
-      <c r="B44" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="23" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="E44" s="23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="A44" s="42"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
@@ -3478,23 +3908,13 @@
       <c r="AA44" s="26"/>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="39"/>
-      <c r="B45" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="23" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="E45" s="23" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="A45" s="42"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="26"/>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
@@ -3517,23 +3937,13 @@
       <c r="AA45" s="26"/>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="39"/>
-      <c r="B46" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="23" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="E46" s="23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="A46" s="42"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
@@ -3556,23 +3966,13 @@
       <c r="AA46" s="26"/>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="39"/>
-      <c r="B47" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="23" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="E47" s="23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="A47" s="42"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
@@ -3595,23 +3995,13 @@
       <c r="AA47" s="26"/>
     </row>
     <row r="48" spans="1:27">
-      <c r="A48" s="39"/>
-      <c r="B48" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="23" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="E48" s="23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="A48" s="42"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
       <c r="J48" s="26"/>
@@ -3634,23 +4024,13 @@
       <c r="AA48" s="26"/>
     </row>
     <row r="49" spans="1:27">
-      <c r="A49" s="39"/>
-      <c r="B49" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="23" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="E49" s="23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="A49" s="42"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
@@ -3673,16 +4053,14 @@
       <c r="AA49" s="26"/>
     </row>
     <row r="50" spans="1:27">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="46" t="s">
-        <v>117</v>
-      </c>
+      <c r="A50" s="42"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
@@ -3704,13 +4082,13 @@
       <c r="AA50" s="26"/>
     </row>
     <row r="51" spans="1:27">
-      <c r="A51" s="39"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="23"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="26"/>
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
@@ -3733,13 +4111,13 @@
       <c r="AA51" s="26"/>
     </row>
     <row r="52" spans="1:27">
-      <c r="A52" s="39"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="23"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
@@ -3762,13 +4140,13 @@
       <c r="AA52" s="26"/>
     </row>
     <row r="53" spans="1:27">
-      <c r="A53" s="39"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="23"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
@@ -3791,13 +4169,13 @@
       <c r="AA53" s="26"/>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="39"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="23"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="26"/>
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
@@ -3820,13 +4198,13 @@
       <c r="AA54" s="26"/>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="39"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="23"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="26"/>
       <c r="I55" s="26"/>
       <c r="J55" s="26"/>
@@ -3849,13 +4227,13 @@
       <c r="AA55" s="26"/>
     </row>
     <row r="56" spans="1:27">
-      <c r="A56" s="39"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="23"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="26"/>
       <c r="I56" s="26"/>
       <c r="J56" s="26"/>
@@ -3878,13 +4256,13 @@
       <c r="AA56" s="26"/>
     </row>
     <row r="57" spans="1:27">
-      <c r="A57" s="39"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="23"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="26"/>
       <c r="I57" s="26"/>
       <c r="J57" s="26"/>
@@ -3907,13 +4285,13 @@
       <c r="AA57" s="26"/>
     </row>
     <row r="58" spans="1:27">
-      <c r="A58" s="39"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="23"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="26"/>
       <c r="I58" s="26"/>
       <c r="J58" s="26"/>
@@ -3936,13 +4314,13 @@
       <c r="AA58" s="26"/>
     </row>
     <row r="59" spans="1:27">
-      <c r="A59" s="39"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="23"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
@@ -3965,13 +4343,13 @@
       <c r="AA59" s="26"/>
     </row>
     <row r="60" spans="1:27">
-      <c r="A60" s="39"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="23"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="26"/>
       <c r="I60" s="26"/>
       <c r="J60" s="26"/>
@@ -3994,13 +4372,13 @@
       <c r="AA60" s="26"/>
     </row>
     <row r="61" spans="1:27">
-      <c r="A61" s="39"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="23"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="27"/>
       <c r="H61" s="26"/>
       <c r="I61" s="26"/>
       <c r="J61" s="26"/>
@@ -4023,13 +4401,13 @@
       <c r="AA61" s="26"/>
     </row>
     <row r="62" spans="1:27">
-      <c r="A62" s="39"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="23"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="27"/>
       <c r="H62" s="26"/>
       <c r="I62" s="26"/>
       <c r="J62" s="26"/>
@@ -4052,13 +4430,13 @@
       <c r="AA62" s="26"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="A63" s="39"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="23"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="26"/>
       <c r="I63" s="26"/>
       <c r="J63" s="26"/>
@@ -4081,13 +4459,13 @@
       <c r="AA63" s="26"/>
     </row>
     <row r="64" spans="1:27">
-      <c r="A64" s="39"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="23"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="26"/>
       <c r="I64" s="26"/>
       <c r="J64" s="26"/>
@@ -4110,13 +4488,13 @@
       <c r="AA64" s="26"/>
     </row>
     <row r="65" spans="1:27">
-      <c r="A65" s="39"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="23"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="27"/>
       <c r="H65" s="26"/>
       <c r="I65" s="26"/>
       <c r="J65" s="26"/>
@@ -4139,13 +4517,13 @@
       <c r="AA65" s="26"/>
     </row>
     <row r="66" spans="1:27">
-      <c r="A66" s="39"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="23"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="26"/>
       <c r="I66" s="26"/>
       <c r="J66" s="26"/>
@@ -4168,13 +4546,13 @@
       <c r="AA66" s="26"/>
     </row>
     <row r="67" spans="1:27">
-      <c r="A67" s="39"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="23"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
       <c r="J67" s="26"/>
@@ -4197,13 +4575,13 @@
       <c r="AA67" s="26"/>
     </row>
     <row r="68" spans="1:27">
-      <c r="A68" s="39"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="23"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="26"/>
       <c r="I68" s="26"/>
       <c r="J68" s="26"/>
@@ -4226,13 +4604,13 @@
       <c r="AA68" s="26"/>
     </row>
     <row r="69" spans="1:27">
-      <c r="A69" s="39"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="23"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
       <c r="J69" s="26"/>
@@ -4255,13 +4633,13 @@
       <c r="AA69" s="26"/>
     </row>
     <row r="70" spans="1:27">
-      <c r="A70" s="39"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="23"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="27"/>
       <c r="H70" s="26"/>
       <c r="I70" s="26"/>
       <c r="J70" s="26"/>
@@ -4284,13 +4662,13 @@
       <c r="AA70" s="26"/>
     </row>
     <row r="71" spans="1:27">
-      <c r="A71" s="39"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="23"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="27"/>
       <c r="H71" s="26"/>
       <c r="I71" s="26"/>
       <c r="J71" s="26"/>
@@ -4313,13 +4691,13 @@
       <c r="AA71" s="26"/>
     </row>
     <row r="72" spans="1:27">
-      <c r="A72" s="39"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="23"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="27"/>
       <c r="H72" s="26"/>
       <c r="I72" s="26"/>
       <c r="J72" s="26"/>
@@ -4342,13 +4720,13 @@
       <c r="AA72" s="26"/>
     </row>
     <row r="73" spans="1:27">
-      <c r="A73" s="39"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="23"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="27"/>
       <c r="H73" s="26"/>
       <c r="I73" s="26"/>
       <c r="J73" s="26"/>
@@ -4371,13 +4749,13 @@
       <c r="AA73" s="26"/>
     </row>
     <row r="74" spans="1:27">
-      <c r="A74" s="39"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="23"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="27"/>
       <c r="H74" s="26"/>
       <c r="I74" s="26"/>
       <c r="J74" s="26"/>
@@ -4400,13 +4778,13 @@
       <c r="AA74" s="26"/>
     </row>
     <row r="75" spans="1:27">
-      <c r="A75" s="39"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="23"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="27"/>
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
       <c r="J75" s="26"/>
@@ -4429,13 +4807,13 @@
       <c r="AA75" s="26"/>
     </row>
     <row r="76" spans="1:27">
-      <c r="A76" s="39"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="23"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="27"/>
       <c r="H76" s="26"/>
       <c r="I76" s="26"/>
       <c r="J76" s="26"/>
@@ -4458,13 +4836,13 @@
       <c r="AA76" s="26"/>
     </row>
     <row r="77" spans="1:27">
-      <c r="A77" s="39"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="23"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="27"/>
       <c r="H77" s="26"/>
       <c r="I77" s="26"/>
       <c r="J77" s="26"/>
@@ -4487,13 +4865,13 @@
       <c r="AA77" s="26"/>
     </row>
     <row r="78" spans="1:27">
-      <c r="A78" s="39"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="23"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="27"/>
       <c r="H78" s="26"/>
       <c r="I78" s="26"/>
       <c r="J78" s="26"/>
@@ -4516,13 +4894,13 @@
       <c r="AA78" s="26"/>
     </row>
     <row r="79" spans="1:27">
-      <c r="A79" s="39"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="23"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="27"/>
       <c r="H79" s="26"/>
       <c r="I79" s="26"/>
       <c r="J79" s="26"/>
@@ -4545,13 +4923,13 @@
       <c r="AA79" s="26"/>
     </row>
     <row r="80" spans="1:27">
-      <c r="A80" s="39"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="23"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="27"/>
       <c r="H80" s="26"/>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
@@ -4574,13 +4952,13 @@
       <c r="AA80" s="26"/>
     </row>
     <row r="81" spans="1:27">
-      <c r="A81" s="39"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="23"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="27"/>
       <c r="H81" s="26"/>
       <c r="I81" s="26"/>
       <c r="J81" s="26"/>
@@ -4603,13 +4981,13 @@
       <c r="AA81" s="26"/>
     </row>
     <row r="82" spans="1:27">
-      <c r="A82" s="39"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="23"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="27"/>
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
       <c r="J82" s="26"/>
@@ -4632,13 +5010,13 @@
       <c r="AA82" s="26"/>
     </row>
     <row r="83" spans="1:27">
-      <c r="A83" s="39"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="23"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="27"/>
       <c r="H83" s="26"/>
       <c r="I83" s="26"/>
       <c r="J83" s="26"/>
@@ -4661,13 +5039,13 @@
       <c r="AA83" s="26"/>
     </row>
     <row r="84" spans="1:27">
-      <c r="A84" s="39"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="23"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="27"/>
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
       <c r="J84" s="26"/>
@@ -4690,13 +5068,13 @@
       <c r="AA84" s="26"/>
     </row>
     <row r="85" spans="1:27">
-      <c r="A85" s="39"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="23"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="27"/>
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
       <c r="J85" s="26"/>
@@ -4719,13 +5097,13 @@
       <c r="AA85" s="26"/>
     </row>
     <row r="86" spans="1:27">
-      <c r="A86" s="39"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="23"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="27"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
       <c r="J86" s="26"/>
@@ -4748,13 +5126,13 @@
       <c r="AA86" s="26"/>
     </row>
     <row r="87" spans="1:27">
-      <c r="A87" s="39"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="23"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="27"/>
       <c r="H87" s="26"/>
       <c r="I87" s="26"/>
       <c r="J87" s="26"/>
@@ -4777,13 +5155,13 @@
       <c r="AA87" s="26"/>
     </row>
     <row r="88" spans="1:27">
-      <c r="A88" s="39"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="23"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="27"/>
       <c r="H88" s="26"/>
       <c r="I88" s="26"/>
       <c r="J88" s="26"/>
@@ -4806,13 +5184,13 @@
       <c r="AA88" s="26"/>
     </row>
     <row r="89" spans="1:27">
-      <c r="A89" s="39"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="23"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="27"/>
       <c r="H89" s="26"/>
       <c r="I89" s="26"/>
       <c r="J89" s="26"/>
@@ -4835,13 +5213,13 @@
       <c r="AA89" s="26"/>
     </row>
     <row r="90" spans="1:27">
-      <c r="A90" s="39"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="23"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="27"/>
       <c r="H90" s="26"/>
       <c r="I90" s="26"/>
       <c r="J90" s="26"/>
@@ -4864,13 +5242,13 @@
       <c r="AA90" s="26"/>
     </row>
     <row r="91" spans="1:27">
-      <c r="A91" s="39"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="23"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="27"/>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
       <c r="J91" s="26"/>
@@ -4893,13 +5271,13 @@
       <c r="AA91" s="26"/>
     </row>
     <row r="92" spans="1:27">
-      <c r="A92" s="39"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="23"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="27"/>
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
       <c r="J92" s="26"/>
@@ -4922,13 +5300,13 @@
       <c r="AA92" s="26"/>
     </row>
     <row r="93" spans="1:27">
-      <c r="A93" s="39"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="23"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="27"/>
       <c r="H93" s="26"/>
       <c r="I93" s="26"/>
       <c r="J93" s="26"/>
@@ -4951,13 +5329,13 @@
       <c r="AA93" s="26"/>
     </row>
     <row r="94" spans="1:27">
-      <c r="A94" s="39"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="23"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="27"/>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
       <c r="J94" s="26"/>
@@ -4980,13 +5358,13 @@
       <c r="AA94" s="26"/>
     </row>
     <row r="95" spans="1:27">
-      <c r="A95" s="39"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="23"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="27"/>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
       <c r="J95" s="26"/>
@@ -5009,13 +5387,13 @@
       <c r="AA95" s="26"/>
     </row>
     <row r="96" spans="1:27">
-      <c r="A96" s="39"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="23"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="27"/>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
       <c r="J96" s="26"/>
@@ -5038,13 +5416,13 @@
       <c r="AA96" s="26"/>
     </row>
     <row r="97" spans="1:27">
-      <c r="A97" s="39"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="23"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="27"/>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
       <c r="J97" s="26"/>
@@ -5067,13 +5445,13 @@
       <c r="AA97" s="26"/>
     </row>
     <row r="98" spans="1:27">
-      <c r="A98" s="39"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="23"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="27"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="26"/>
@@ -5096,13 +5474,13 @@
       <c r="AA98" s="26"/>
     </row>
     <row r="99" spans="1:27">
-      <c r="A99" s="39"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="23"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="27"/>
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
       <c r="J99" s="26"/>
@@ -5125,13 +5503,13 @@
       <c r="AA99" s="26"/>
     </row>
     <row r="100" spans="1:27">
-      <c r="A100" s="39"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="23"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="27"/>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
       <c r="J100" s="26"/>
@@ -5154,13 +5532,13 @@
       <c r="AA100" s="26"/>
     </row>
     <row r="101" spans="1:27">
-      <c r="A101" s="39"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="23"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="27"/>
       <c r="H101" s="26"/>
       <c r="I101" s="26"/>
       <c r="J101" s="26"/>
@@ -5183,13 +5561,13 @@
       <c r="AA101" s="26"/>
     </row>
     <row r="102" spans="1:27">
-      <c r="A102" s="39"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="23"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="27"/>
       <c r="H102" s="26"/>
       <c r="I102" s="26"/>
       <c r="J102" s="26"/>
@@ -5212,13 +5590,13 @@
       <c r="AA102" s="26"/>
     </row>
     <row r="103" spans="1:27">
-      <c r="A103" s="39"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="23"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="27"/>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
       <c r="J103" s="26"/>
@@ -5241,13 +5619,13 @@
       <c r="AA103" s="26"/>
     </row>
     <row r="104" spans="1:27">
-      <c r="A104" s="39"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="23"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="27"/>
       <c r="H104" s="26"/>
       <c r="I104" s="26"/>
       <c r="J104" s="26"/>
@@ -5270,13 +5648,13 @@
       <c r="AA104" s="26"/>
     </row>
     <row r="105" spans="1:27">
-      <c r="A105" s="39"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="23"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="27"/>
       <c r="H105" s="26"/>
       <c r="I105" s="26"/>
       <c r="J105" s="26"/>
@@ -5299,13 +5677,13 @@
       <c r="AA105" s="26"/>
     </row>
     <row r="106" spans="1:27">
-      <c r="A106" s="39"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="23"/>
+      <c r="A106" s="42"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="27"/>
       <c r="H106" s="26"/>
       <c r="I106" s="26"/>
       <c r="J106" s="26"/>
@@ -5328,13 +5706,13 @@
       <c r="AA106" s="26"/>
     </row>
     <row r="107" spans="1:27">
-      <c r="A107" s="39"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="23"/>
+      <c r="A107" s="42"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="27"/>
       <c r="H107" s="26"/>
       <c r="I107" s="26"/>
       <c r="J107" s="26"/>
@@ -5357,13 +5735,13 @@
       <c r="AA107" s="26"/>
     </row>
     <row r="108" spans="1:27">
-      <c r="A108" s="39"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="23"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="27"/>
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
       <c r="J108" s="26"/>
@@ -5386,13 +5764,13 @@
       <c r="AA108" s="26"/>
     </row>
     <row r="109" spans="1:27">
-      <c r="A109" s="39"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="23"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="27"/>
       <c r="H109" s="26"/>
       <c r="I109" s="26"/>
       <c r="J109" s="26"/>
@@ -5415,13 +5793,13 @@
       <c r="AA109" s="26"/>
     </row>
     <row r="110" spans="1:27">
-      <c r="A110" s="39"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="23"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="27"/>
       <c r="H110" s="26"/>
       <c r="I110" s="26"/>
       <c r="J110" s="26"/>
@@ -5444,13 +5822,13 @@
       <c r="AA110" s="26"/>
     </row>
     <row r="111" spans="1:27">
-      <c r="A111" s="39"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="23"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="27"/>
       <c r="H111" s="26"/>
       <c r="I111" s="26"/>
       <c r="J111" s="26"/>
@@ -5473,13 +5851,13 @@
       <c r="AA111" s="26"/>
     </row>
     <row r="112" spans="1:27">
-      <c r="A112" s="39"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="23"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="27"/>
       <c r="H112" s="26"/>
       <c r="I112" s="26"/>
       <c r="J112" s="26"/>
@@ -5502,13 +5880,13 @@
       <c r="AA112" s="26"/>
     </row>
     <row r="113" spans="1:27">
-      <c r="A113" s="39"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="23"/>
+      <c r="A113" s="42"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="27"/>
       <c r="H113" s="26"/>
       <c r="I113" s="26"/>
       <c r="J113" s="26"/>
@@ -5531,13 +5909,13 @@
       <c r="AA113" s="26"/>
     </row>
     <row r="114" spans="1:27">
-      <c r="A114" s="39"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="23"/>
+      <c r="A114" s="42"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="27"/>
       <c r="H114" s="26"/>
       <c r="I114" s="26"/>
       <c r="J114" s="26"/>
@@ -5560,13 +5938,13 @@
       <c r="AA114" s="26"/>
     </row>
     <row r="115" spans="1:27">
-      <c r="A115" s="39"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="23"/>
+      <c r="A115" s="42"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="27"/>
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
       <c r="J115" s="26"/>
@@ -5589,13 +5967,13 @@
       <c r="AA115" s="26"/>
     </row>
     <row r="116" spans="1:27">
-      <c r="A116" s="39"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="23"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="27"/>
       <c r="H116" s="26"/>
       <c r="I116" s="26"/>
       <c r="J116" s="26"/>
@@ -5618,13 +5996,13 @@
       <c r="AA116" s="26"/>
     </row>
     <row r="117" spans="1:27">
-      <c r="A117" s="39"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="23"/>
+      <c r="A117" s="42"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="27"/>
       <c r="H117" s="26"/>
       <c r="I117" s="26"/>
       <c r="J117" s="26"/>
@@ -5647,13 +6025,13 @@
       <c r="AA117" s="26"/>
     </row>
     <row r="118" spans="1:27">
-      <c r="A118" s="39"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="23"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="27"/>
       <c r="H118" s="26"/>
       <c r="I118" s="26"/>
       <c r="J118" s="26"/>
@@ -5676,13 +6054,13 @@
       <c r="AA118" s="26"/>
     </row>
     <row r="119" spans="1:27">
-      <c r="A119" s="39"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="23"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="27"/>
       <c r="H119" s="26"/>
       <c r="I119" s="26"/>
       <c r="J119" s="26"/>
@@ -5705,13 +6083,13 @@
       <c r="AA119" s="26"/>
     </row>
     <row r="120" spans="1:27">
-      <c r="A120" s="39"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="23"/>
+      <c r="A120" s="42"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="27"/>
       <c r="H120" s="26"/>
       <c r="I120" s="26"/>
       <c r="J120" s="26"/>
@@ -5734,13 +6112,13 @@
       <c r="AA120" s="26"/>
     </row>
     <row r="121" spans="1:27">
-      <c r="A121" s="39"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="23"/>
+      <c r="A121" s="42"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="27"/>
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
       <c r="J121" s="26"/>
@@ -5763,13 +6141,13 @@
       <c r="AA121" s="26"/>
     </row>
     <row r="122" spans="1:27">
-      <c r="A122" s="39"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="23"/>
+      <c r="A122" s="42"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="27"/>
       <c r="H122" s="26"/>
       <c r="I122" s="26"/>
       <c r="J122" s="26"/>
@@ -5792,13 +6170,13 @@
       <c r="AA122" s="26"/>
     </row>
     <row r="123" spans="1:27">
-      <c r="A123" s="39"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="23"/>
+      <c r="A123" s="42"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="27"/>
       <c r="H123" s="26"/>
       <c r="I123" s="26"/>
       <c r="J123" s="26"/>
@@ -5821,13 +6199,13 @@
       <c r="AA123" s="26"/>
     </row>
     <row r="124" spans="1:27">
-      <c r="A124" s="39"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="23"/>
+      <c r="A124" s="42"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="27"/>
       <c r="H124" s="26"/>
       <c r="I124" s="26"/>
       <c r="J124" s="26"/>
@@ -5850,13 +6228,13 @@
       <c r="AA124" s="26"/>
     </row>
     <row r="125" spans="1:27">
-      <c r="A125" s="39"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="23"/>
+      <c r="A125" s="42"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="27"/>
       <c r="H125" s="26"/>
       <c r="I125" s="26"/>
       <c r="J125" s="26"/>
@@ -5879,13 +6257,13 @@
       <c r="AA125" s="26"/>
     </row>
     <row r="126" spans="1:27">
-      <c r="A126" s="39"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="23"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="38"/>
+      <c r="G126" s="27"/>
       <c r="H126" s="26"/>
       <c r="I126" s="26"/>
       <c r="J126" s="26"/>
@@ -5908,13 +6286,13 @@
       <c r="AA126" s="26"/>
     </row>
     <row r="127" spans="1:27">
-      <c r="A127" s="39"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="23"/>
+      <c r="A127" s="42"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="27"/>
       <c r="H127" s="26"/>
       <c r="I127" s="26"/>
       <c r="J127" s="26"/>
@@ -5937,13 +6315,13 @@
       <c r="AA127" s="26"/>
     </row>
     <row r="128" spans="1:27">
-      <c r="A128" s="39"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="23"/>
+      <c r="A128" s="42"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="38"/>
+      <c r="G128" s="27"/>
       <c r="H128" s="26"/>
       <c r="I128" s="26"/>
       <c r="J128" s="26"/>
@@ -5966,13 +6344,13 @@
       <c r="AA128" s="26"/>
     </row>
     <row r="129" spans="1:27">
-      <c r="A129" s="39"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="41"/>
-      <c r="G129" s="23"/>
+      <c r="A129" s="42"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="27"/>
       <c r="H129" s="26"/>
       <c r="I129" s="26"/>
       <c r="J129" s="26"/>
@@ -5995,13 +6373,13 @@
       <c r="AA129" s="26"/>
     </row>
     <row r="130" spans="1:27">
-      <c r="A130" s="39"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="23"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="27"/>
       <c r="H130" s="26"/>
       <c r="I130" s="26"/>
       <c r="J130" s="26"/>
@@ -6024,13 +6402,13 @@
       <c r="AA130" s="26"/>
     </row>
     <row r="131" spans="1:27">
-      <c r="A131" s="39"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="41"/>
-      <c r="G131" s="23"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="27"/>
       <c r="H131" s="26"/>
       <c r="I131" s="26"/>
       <c r="J131" s="26"/>
@@ -6053,13 +6431,13 @@
       <c r="AA131" s="26"/>
     </row>
     <row r="132" spans="1:27">
-      <c r="A132" s="39"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="41"/>
-      <c r="G132" s="23"/>
+      <c r="A132" s="42"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="27"/>
       <c r="H132" s="26"/>
       <c r="I132" s="26"/>
       <c r="J132" s="26"/>
@@ -6082,13 +6460,13 @@
       <c r="AA132" s="26"/>
     </row>
     <row r="133" spans="1:27">
-      <c r="A133" s="39"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="23"/>
+      <c r="A133" s="42"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="27"/>
       <c r="H133" s="26"/>
       <c r="I133" s="26"/>
       <c r="J133" s="26"/>
@@ -6111,13 +6489,13 @@
       <c r="AA133" s="26"/>
     </row>
     <row r="134" spans="1:27">
-      <c r="A134" s="39"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="23"/>
+      <c r="A134" s="42"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="27"/>
       <c r="H134" s="26"/>
       <c r="I134" s="26"/>
       <c r="J134" s="26"/>
@@ -6140,13 +6518,13 @@
       <c r="AA134" s="26"/>
     </row>
     <row r="135" spans="1:27">
-      <c r="A135" s="39"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="41"/>
-      <c r="G135" s="23"/>
+      <c r="A135" s="42"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="27"/>
       <c r="H135" s="26"/>
       <c r="I135" s="26"/>
       <c r="J135" s="26"/>
@@ -6169,13 +6547,13 @@
       <c r="AA135" s="26"/>
     </row>
     <row r="136" spans="1:27">
-      <c r="A136" s="39"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="41"/>
-      <c r="G136" s="23"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="27"/>
       <c r="H136" s="26"/>
       <c r="I136" s="26"/>
       <c r="J136" s="26"/>
@@ -6198,13 +6576,13 @@
       <c r="AA136" s="26"/>
     </row>
     <row r="137" spans="1:27">
-      <c r="A137" s="39"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="41"/>
-      <c r="G137" s="23"/>
+      <c r="A137" s="42"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="27"/>
       <c r="H137" s="26"/>
       <c r="I137" s="26"/>
       <c r="J137" s="26"/>
@@ -6227,13 +6605,13 @@
       <c r="AA137" s="26"/>
     </row>
     <row r="138" spans="1:27">
-      <c r="A138" s="39"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="41"/>
-      <c r="G138" s="23"/>
+      <c r="A138" s="42"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="38"/>
+      <c r="G138" s="27"/>
       <c r="H138" s="26"/>
       <c r="I138" s="26"/>
       <c r="J138" s="26"/>
@@ -6256,13 +6634,13 @@
       <c r="AA138" s="26"/>
     </row>
     <row r="139" spans="1:27">
-      <c r="A139" s="39"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="41"/>
-      <c r="G139" s="23"/>
+      <c r="A139" s="42"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="27"/>
       <c r="H139" s="26"/>
       <c r="I139" s="26"/>
       <c r="J139" s="26"/>
@@ -6285,13 +6663,13 @@
       <c r="AA139" s="26"/>
     </row>
     <row r="140" spans="1:27">
-      <c r="A140" s="39"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="41"/>
-      <c r="G140" s="23"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="38"/>
+      <c r="G140" s="27"/>
       <c r="H140" s="26"/>
       <c r="I140" s="26"/>
       <c r="J140" s="26"/>
@@ -6314,13 +6692,13 @@
       <c r="AA140" s="26"/>
     </row>
     <row r="141" spans="1:27">
-      <c r="A141" s="39"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="41"/>
-      <c r="G141" s="23"/>
+      <c r="A141" s="42"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="38"/>
+      <c r="G141" s="27"/>
       <c r="H141" s="26"/>
       <c r="I141" s="26"/>
       <c r="J141" s="26"/>
@@ -6343,13 +6721,13 @@
       <c r="AA141" s="26"/>
     </row>
     <row r="142" spans="1:27">
-      <c r="A142" s="39"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="42"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
-      <c r="F142" s="41"/>
-      <c r="G142" s="23"/>
+      <c r="A142" s="42"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="27"/>
       <c r="H142" s="26"/>
       <c r="I142" s="26"/>
       <c r="J142" s="26"/>
@@ -6372,13 +6750,13 @@
       <c r="AA142" s="26"/>
     </row>
     <row r="143" spans="1:27">
-      <c r="A143" s="39"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="23"/>
+      <c r="A143" s="42"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="38"/>
+      <c r="G143" s="27"/>
       <c r="H143" s="26"/>
       <c r="I143" s="26"/>
       <c r="J143" s="26"/>
@@ -6401,13 +6779,13 @@
       <c r="AA143" s="26"/>
     </row>
     <row r="144" spans="1:27">
-      <c r="A144" s="39"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="23"/>
-      <c r="F144" s="41"/>
-      <c r="G144" s="23"/>
+      <c r="A144" s="42"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="38"/>
+      <c r="G144" s="27"/>
       <c r="H144" s="26"/>
       <c r="I144" s="26"/>
       <c r="J144" s="26"/>
@@ -6430,13 +6808,13 @@
       <c r="AA144" s="26"/>
     </row>
     <row r="145" spans="1:27">
-      <c r="A145" s="39"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="41"/>
-      <c r="G145" s="23"/>
+      <c r="A145" s="42"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="38"/>
+      <c r="G145" s="27"/>
       <c r="H145" s="26"/>
       <c r="I145" s="26"/>
       <c r="J145" s="26"/>
@@ -6459,13 +6837,13 @@
       <c r="AA145" s="26"/>
     </row>
     <row r="146" spans="1:27">
-      <c r="A146" s="39"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="41"/>
-      <c r="G146" s="23"/>
+      <c r="A146" s="42"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="38"/>
+      <c r="G146" s="27"/>
       <c r="H146" s="26"/>
       <c r="I146" s="26"/>
       <c r="J146" s="26"/>
@@ -6488,13 +6866,13 @@
       <c r="AA146" s="26"/>
     </row>
     <row r="147" spans="1:27">
-      <c r="A147" s="39"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="41"/>
-      <c r="G147" s="23"/>
+      <c r="A147" s="42"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="38"/>
+      <c r="G147" s="27"/>
       <c r="H147" s="26"/>
       <c r="I147" s="26"/>
       <c r="J147" s="26"/>
@@ -6517,13 +6895,13 @@
       <c r="AA147" s="26"/>
     </row>
     <row r="148" spans="1:27">
-      <c r="A148" s="39"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="41"/>
-      <c r="G148" s="23"/>
+      <c r="A148" s="42"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="38"/>
+      <c r="G148" s="27"/>
       <c r="H148" s="26"/>
       <c r="I148" s="26"/>
       <c r="J148" s="26"/>
@@ -6546,13 +6924,13 @@
       <c r="AA148" s="26"/>
     </row>
     <row r="149" spans="1:27">
-      <c r="A149" s="39"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="41"/>
-      <c r="G149" s="23"/>
+      <c r="A149" s="42"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="38"/>
+      <c r="G149" s="27"/>
       <c r="H149" s="26"/>
       <c r="I149" s="26"/>
       <c r="J149" s="26"/>
@@ -6575,13 +6953,13 @@
       <c r="AA149" s="26"/>
     </row>
     <row r="150" spans="1:27">
-      <c r="A150" s="39"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="42"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="41"/>
-      <c r="G150" s="23"/>
+      <c r="A150" s="42"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="38"/>
+      <c r="G150" s="27"/>
       <c r="H150" s="26"/>
       <c r="I150" s="26"/>
       <c r="J150" s="26"/>
@@ -6604,13 +6982,13 @@
       <c r="AA150" s="26"/>
     </row>
     <row r="151" spans="1:27">
-      <c r="A151" s="39"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="41"/>
-      <c r="G151" s="23"/>
+      <c r="A151" s="42"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="38"/>
+      <c r="G151" s="27"/>
       <c r="H151" s="26"/>
       <c r="I151" s="26"/>
       <c r="J151" s="26"/>
@@ -6633,13 +7011,13 @@
       <c r="AA151" s="26"/>
     </row>
     <row r="152" spans="1:27">
-      <c r="A152" s="39"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="23"/>
-      <c r="F152" s="41"/>
-      <c r="G152" s="23"/>
+      <c r="A152" s="42"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="43"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="38"/>
+      <c r="G152" s="27"/>
       <c r="H152" s="26"/>
       <c r="I152" s="26"/>
       <c r="J152" s="26"/>
@@ -6662,13 +7040,13 @@
       <c r="AA152" s="26"/>
     </row>
     <row r="153" spans="1:27">
-      <c r="A153" s="39"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="42"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
-      <c r="F153" s="41"/>
-      <c r="G153" s="23"/>
+      <c r="A153" s="42"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="38"/>
+      <c r="G153" s="27"/>
       <c r="H153" s="26"/>
       <c r="I153" s="26"/>
       <c r="J153" s="26"/>
@@ -6691,13 +7069,13 @@
       <c r="AA153" s="26"/>
     </row>
     <row r="154" spans="1:27">
-      <c r="A154" s="39"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="42"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="41"/>
-      <c r="G154" s="23"/>
+      <c r="A154" s="42"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="38"/>
+      <c r="G154" s="27"/>
       <c r="H154" s="26"/>
       <c r="I154" s="26"/>
       <c r="J154" s="26"/>
@@ -6720,13 +7098,13 @@
       <c r="AA154" s="26"/>
     </row>
     <row r="155" spans="1:27">
-      <c r="A155" s="39"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="42"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
-      <c r="F155" s="41"/>
-      <c r="G155" s="23"/>
+      <c r="A155" s="42"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="43"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="38"/>
+      <c r="G155" s="27"/>
       <c r="H155" s="26"/>
       <c r="I155" s="26"/>
       <c r="J155" s="26"/>
@@ -6749,13 +7127,13 @@
       <c r="AA155" s="26"/>
     </row>
     <row r="156" spans="1:27">
-      <c r="A156" s="39"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="42"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="41"/>
-      <c r="G156" s="23"/>
+      <c r="A156" s="42"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="43"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="38"/>
+      <c r="G156" s="27"/>
       <c r="H156" s="26"/>
       <c r="I156" s="26"/>
       <c r="J156" s="26"/>
@@ -6778,13 +7156,13 @@
       <c r="AA156" s="26"/>
     </row>
     <row r="157" spans="1:27">
-      <c r="A157" s="39"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="42"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="23"/>
-      <c r="F157" s="41"/>
-      <c r="G157" s="23"/>
+      <c r="A157" s="42"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="43"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="38"/>
+      <c r="G157" s="27"/>
       <c r="H157" s="26"/>
       <c r="I157" s="26"/>
       <c r="J157" s="26"/>
@@ -6807,13 +7185,13 @@
       <c r="AA157" s="26"/>
     </row>
     <row r="158" spans="1:27">
-      <c r="A158" s="39"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="42"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="41"/>
-      <c r="G158" s="23"/>
+      <c r="A158" s="42"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="38"/>
+      <c r="G158" s="27"/>
       <c r="H158" s="26"/>
       <c r="I158" s="26"/>
       <c r="J158" s="26"/>
@@ -6836,13 +7214,13 @@
       <c r="AA158" s="26"/>
     </row>
     <row r="159" spans="1:27">
-      <c r="A159" s="39"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="42"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="41"/>
-      <c r="G159" s="23"/>
+      <c r="A159" s="42"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="43"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="38"/>
+      <c r="G159" s="27"/>
       <c r="H159" s="26"/>
       <c r="I159" s="26"/>
       <c r="J159" s="26"/>
@@ -6865,13 +7243,13 @@
       <c r="AA159" s="26"/>
     </row>
     <row r="160" spans="1:27">
-      <c r="A160" s="39"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="42"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="41"/>
-      <c r="G160" s="23"/>
+      <c r="A160" s="42"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="38"/>
+      <c r="G160" s="27"/>
       <c r="H160" s="26"/>
       <c r="I160" s="26"/>
       <c r="J160" s="26"/>
@@ -6894,13 +7272,13 @@
       <c r="AA160" s="26"/>
     </row>
     <row r="161" spans="1:27">
-      <c r="A161" s="39"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="42"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="41"/>
-      <c r="G161" s="23"/>
+      <c r="A161" s="42"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="38"/>
+      <c r="G161" s="27"/>
       <c r="H161" s="26"/>
       <c r="I161" s="26"/>
       <c r="J161" s="26"/>
@@ -6923,13 +7301,13 @@
       <c r="AA161" s="26"/>
     </row>
     <row r="162" spans="1:27">
-      <c r="A162" s="39"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="42"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="41"/>
-      <c r="G162" s="23"/>
+      <c r="A162" s="42"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="38"/>
+      <c r="G162" s="27"/>
       <c r="H162" s="26"/>
       <c r="I162" s="26"/>
       <c r="J162" s="26"/>
@@ -6952,13 +7330,13 @@
       <c r="AA162" s="26"/>
     </row>
     <row r="163" spans="1:27">
-      <c r="A163" s="39"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="41"/>
-      <c r="G163" s="23"/>
+      <c r="A163" s="42"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="38"/>
+      <c r="G163" s="27"/>
       <c r="H163" s="26"/>
       <c r="I163" s="26"/>
       <c r="J163" s="26"/>
@@ -6981,13 +7359,13 @@
       <c r="AA163" s="26"/>
     </row>
     <row r="164" spans="1:27">
-      <c r="A164" s="39"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="42"/>
-      <c r="D164" s="23"/>
-      <c r="E164" s="23"/>
-      <c r="F164" s="41"/>
-      <c r="G164" s="23"/>
+      <c r="A164" s="42"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="38"/>
+      <c r="G164" s="27"/>
       <c r="H164" s="26"/>
       <c r="I164" s="26"/>
       <c r="J164" s="26"/>
@@ -7010,13 +7388,13 @@
       <c r="AA164" s="26"/>
     </row>
     <row r="165" spans="1:27">
-      <c r="A165" s="39"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="42"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="23"/>
-      <c r="F165" s="41"/>
-      <c r="G165" s="23"/>
+      <c r="A165" s="42"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="38"/>
+      <c r="G165" s="27"/>
       <c r="H165" s="26"/>
       <c r="I165" s="26"/>
       <c r="J165" s="26"/>
@@ -7039,13 +7417,13 @@
       <c r="AA165" s="26"/>
     </row>
     <row r="166" spans="1:27">
-      <c r="A166" s="39"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="42"/>
-      <c r="D166" s="23"/>
-      <c r="E166" s="23"/>
-      <c r="F166" s="41"/>
-      <c r="G166" s="23"/>
+      <c r="A166" s="42"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="38"/>
+      <c r="G166" s="27"/>
       <c r="H166" s="26"/>
       <c r="I166" s="26"/>
       <c r="J166" s="26"/>
@@ -7068,13 +7446,13 @@
       <c r="AA166" s="26"/>
     </row>
     <row r="167" spans="1:27">
-      <c r="A167" s="39"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="23"/>
-      <c r="E167" s="23"/>
-      <c r="F167" s="41"/>
-      <c r="G167" s="23"/>
+      <c r="A167" s="42"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="43"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="38"/>
+      <c r="G167" s="27"/>
       <c r="H167" s="26"/>
       <c r="I167" s="26"/>
       <c r="J167" s="26"/>
@@ -7097,13 +7475,13 @@
       <c r="AA167" s="26"/>
     </row>
     <row r="168" spans="1:27">
-      <c r="A168" s="39"/>
-      <c r="B168" s="23"/>
-      <c r="C168" s="42"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="23"/>
-      <c r="F168" s="41"/>
-      <c r="G168" s="23"/>
+      <c r="A168" s="42"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="43"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="38"/>
+      <c r="G168" s="27"/>
       <c r="H168" s="26"/>
       <c r="I168" s="26"/>
       <c r="J168" s="26"/>
@@ -7126,13 +7504,13 @@
       <c r="AA168" s="26"/>
     </row>
     <row r="169" spans="1:27">
-      <c r="A169" s="39"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="42"/>
-      <c r="D169" s="23"/>
-      <c r="E169" s="23"/>
-      <c r="F169" s="41"/>
-      <c r="G169" s="23"/>
+      <c r="A169" s="42"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="43"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="38"/>
+      <c r="G169" s="27"/>
       <c r="H169" s="26"/>
       <c r="I169" s="26"/>
       <c r="J169" s="26"/>
@@ -7155,13 +7533,13 @@
       <c r="AA169" s="26"/>
     </row>
     <row r="170" spans="1:27">
-      <c r="A170" s="39"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="42"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="41"/>
-      <c r="G170" s="23"/>
+      <c r="A170" s="42"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="43"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="38"/>
+      <c r="G170" s="27"/>
       <c r="H170" s="26"/>
       <c r="I170" s="26"/>
       <c r="J170" s="26"/>
@@ -7184,13 +7562,13 @@
       <c r="AA170" s="26"/>
     </row>
     <row r="171" spans="1:27">
-      <c r="A171" s="39"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="42"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="23"/>
-      <c r="F171" s="41"/>
-      <c r="G171" s="23"/>
+      <c r="A171" s="42"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="43"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="38"/>
+      <c r="G171" s="27"/>
       <c r="H171" s="26"/>
       <c r="I171" s="26"/>
       <c r="J171" s="26"/>
@@ -7213,13 +7591,13 @@
       <c r="AA171" s="26"/>
     </row>
     <row r="172" spans="1:27">
-      <c r="A172" s="39"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="42"/>
-      <c r="D172" s="23"/>
-      <c r="E172" s="23"/>
-      <c r="F172" s="41"/>
-      <c r="G172" s="23"/>
+      <c r="A172" s="42"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="38"/>
+      <c r="G172" s="27"/>
       <c r="H172" s="26"/>
       <c r="I172" s="26"/>
       <c r="J172" s="26"/>
@@ -7242,13 +7620,13 @@
       <c r="AA172" s="26"/>
     </row>
     <row r="173" spans="1:27">
-      <c r="A173" s="39"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
-      <c r="F173" s="41"/>
-      <c r="G173" s="23"/>
+      <c r="A173" s="42"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="43"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="38"/>
+      <c r="G173" s="27"/>
       <c r="H173" s="26"/>
       <c r="I173" s="26"/>
       <c r="J173" s="26"/>
@@ -7271,13 +7649,13 @@
       <c r="AA173" s="26"/>
     </row>
     <row r="174" spans="1:27">
-      <c r="A174" s="39"/>
-      <c r="B174" s="23"/>
-      <c r="C174" s="42"/>
-      <c r="D174" s="23"/>
-      <c r="E174" s="23"/>
-      <c r="F174" s="41"/>
-      <c r="G174" s="23"/>
+      <c r="A174" s="42"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="43"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="38"/>
+      <c r="G174" s="27"/>
       <c r="H174" s="26"/>
       <c r="I174" s="26"/>
       <c r="J174" s="26"/>
@@ -7300,13 +7678,13 @@
       <c r="AA174" s="26"/>
     </row>
     <row r="175" spans="1:27">
-      <c r="A175" s="39"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="42"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="23"/>
-      <c r="F175" s="41"/>
-      <c r="G175" s="23"/>
+      <c r="A175" s="42"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="43"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="38"/>
+      <c r="G175" s="27"/>
       <c r="H175" s="26"/>
       <c r="I175" s="26"/>
       <c r="J175" s="26"/>
@@ -7329,13 +7707,13 @@
       <c r="AA175" s="26"/>
     </row>
     <row r="176" spans="1:27">
-      <c r="A176" s="39"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="42"/>
-      <c r="D176" s="23"/>
-      <c r="E176" s="23"/>
-      <c r="F176" s="41"/>
-      <c r="G176" s="23"/>
+      <c r="A176" s="42"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="43"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="38"/>
+      <c r="G176" s="27"/>
       <c r="H176" s="26"/>
       <c r="I176" s="26"/>
       <c r="J176" s="26"/>
@@ -7358,13 +7736,13 @@
       <c r="AA176" s="26"/>
     </row>
     <row r="177" spans="1:27">
-      <c r="A177" s="39"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="41"/>
-      <c r="G177" s="23"/>
+      <c r="A177" s="42"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="43"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="38"/>
+      <c r="G177" s="27"/>
       <c r="H177" s="26"/>
       <c r="I177" s="26"/>
       <c r="J177" s="26"/>
@@ -7387,13 +7765,13 @@
       <c r="AA177" s="26"/>
     </row>
     <row r="178" spans="1:27">
-      <c r="A178" s="39"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="41"/>
-      <c r="G178" s="23"/>
+      <c r="A178" s="42"/>
+      <c r="B178" s="27"/>
+      <c r="C178" s="43"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="38"/>
+      <c r="G178" s="27"/>
       <c r="H178" s="26"/>
       <c r="I178" s="26"/>
       <c r="J178" s="26"/>
@@ -7416,13 +7794,13 @@
       <c r="AA178" s="26"/>
     </row>
     <row r="179" spans="1:27">
-      <c r="A179" s="39"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="42"/>
-      <c r="D179" s="23"/>
-      <c r="E179" s="23"/>
-      <c r="F179" s="41"/>
-      <c r="G179" s="23"/>
+      <c r="A179" s="42"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="43"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="38"/>
+      <c r="G179" s="27"/>
       <c r="H179" s="26"/>
       <c r="I179" s="26"/>
       <c r="J179" s="26"/>
@@ -7445,13 +7823,13 @@
       <c r="AA179" s="26"/>
     </row>
     <row r="180" spans="1:27">
-      <c r="A180" s="39"/>
-      <c r="B180" s="23"/>
-      <c r="C180" s="42"/>
-      <c r="D180" s="23"/>
-      <c r="E180" s="23"/>
-      <c r="F180" s="41"/>
-      <c r="G180" s="23"/>
+      <c r="A180" s="42"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="43"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="38"/>
+      <c r="G180" s="27"/>
       <c r="H180" s="26"/>
       <c r="I180" s="26"/>
       <c r="J180" s="26"/>
@@ -7474,13 +7852,13 @@
       <c r="AA180" s="26"/>
     </row>
     <row r="181" spans="1:27">
-      <c r="A181" s="39"/>
-      <c r="B181" s="23"/>
-      <c r="C181" s="42"/>
-      <c r="D181" s="23"/>
-      <c r="E181" s="23"/>
-      <c r="F181" s="41"/>
-      <c r="G181" s="23"/>
+      <c r="A181" s="42"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="43"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="38"/>
+      <c r="G181" s="27"/>
       <c r="H181" s="26"/>
       <c r="I181" s="26"/>
       <c r="J181" s="26"/>
@@ -7503,13 +7881,13 @@
       <c r="AA181" s="26"/>
     </row>
     <row r="182" spans="1:27">
-      <c r="A182" s="39"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="42"/>
-      <c r="D182" s="23"/>
-      <c r="E182" s="23"/>
-      <c r="F182" s="41"/>
-      <c r="G182" s="23"/>
+      <c r="A182" s="42"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="38"/>
+      <c r="G182" s="27"/>
       <c r="H182" s="26"/>
       <c r="I182" s="26"/>
       <c r="J182" s="26"/>
@@ -7532,13 +7910,13 @@
       <c r="AA182" s="26"/>
     </row>
     <row r="183" spans="1:27">
-      <c r="A183" s="39"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="23"/>
-      <c r="E183" s="23"/>
-      <c r="F183" s="41"/>
-      <c r="G183" s="23"/>
+      <c r="A183" s="42"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="38"/>
+      <c r="G183" s="27"/>
       <c r="H183" s="26"/>
       <c r="I183" s="26"/>
       <c r="J183" s="26"/>
@@ -7561,13 +7939,13 @@
       <c r="AA183" s="26"/>
     </row>
     <row r="184" spans="1:27">
-      <c r="A184" s="39"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="23"/>
-      <c r="E184" s="23"/>
-      <c r="F184" s="41"/>
-      <c r="G184" s="23"/>
+      <c r="A184" s="42"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="43"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="38"/>
+      <c r="G184" s="27"/>
       <c r="H184" s="26"/>
       <c r="I184" s="26"/>
       <c r="J184" s="26"/>
@@ -7590,13 +7968,13 @@
       <c r="AA184" s="26"/>
     </row>
     <row r="185" spans="1:27">
-      <c r="A185" s="39"/>
-      <c r="B185" s="23"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="23"/>
-      <c r="E185" s="23"/>
-      <c r="F185" s="41"/>
-      <c r="G185" s="23"/>
+      <c r="A185" s="42"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="43"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="38"/>
+      <c r="G185" s="27"/>
       <c r="H185" s="26"/>
       <c r="I185" s="26"/>
       <c r="J185" s="26"/>
@@ -7619,13 +7997,13 @@
       <c r="AA185" s="26"/>
     </row>
     <row r="186" spans="1:27">
-      <c r="A186" s="39"/>
-      <c r="B186" s="23"/>
-      <c r="C186" s="42"/>
-      <c r="D186" s="23"/>
-      <c r="E186" s="23"/>
-      <c r="F186" s="41"/>
-      <c r="G186" s="23"/>
+      <c r="A186" s="42"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="43"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="38"/>
+      <c r="G186" s="27"/>
       <c r="H186" s="26"/>
       <c r="I186" s="26"/>
       <c r="J186" s="26"/>
@@ -7648,13 +8026,13 @@
       <c r="AA186" s="26"/>
     </row>
     <row r="187" spans="1:27">
-      <c r="A187" s="39"/>
-      <c r="B187" s="23"/>
-      <c r="C187" s="42"/>
-      <c r="D187" s="23"/>
-      <c r="E187" s="23"/>
-      <c r="F187" s="41"/>
-      <c r="G187" s="23"/>
+      <c r="A187" s="42"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="43"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="38"/>
+      <c r="G187" s="27"/>
       <c r="H187" s="26"/>
       <c r="I187" s="26"/>
       <c r="J187" s="26"/>
@@ -7677,13 +8055,13 @@
       <c r="AA187" s="26"/>
     </row>
     <row r="188" spans="1:27">
-      <c r="A188" s="39"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="23"/>
-      <c r="E188" s="23"/>
-      <c r="F188" s="41"/>
-      <c r="G188" s="23"/>
+      <c r="A188" s="42"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="43"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="38"/>
+      <c r="G188" s="27"/>
       <c r="H188" s="26"/>
       <c r="I188" s="26"/>
       <c r="J188" s="26"/>
@@ -7706,13 +8084,13 @@
       <c r="AA188" s="26"/>
     </row>
     <row r="189" spans="1:27">
-      <c r="A189" s="39"/>
-      <c r="B189" s="23"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="23"/>
-      <c r="E189" s="23"/>
-      <c r="F189" s="41"/>
-      <c r="G189" s="23"/>
+      <c r="A189" s="42"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="43"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="38"/>
+      <c r="G189" s="27"/>
       <c r="H189" s="26"/>
       <c r="I189" s="26"/>
       <c r="J189" s="26"/>
@@ -7735,13 +8113,13 @@
       <c r="AA189" s="26"/>
     </row>
     <row r="190" spans="1:27">
-      <c r="A190" s="39"/>
-      <c r="B190" s="23"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="23"/>
-      <c r="E190" s="23"/>
-      <c r="F190" s="41"/>
-      <c r="G190" s="23"/>
+      <c r="A190" s="42"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="43"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="38"/>
+      <c r="G190" s="27"/>
       <c r="H190" s="26"/>
       <c r="I190" s="26"/>
       <c r="J190" s="26"/>
@@ -7764,13 +8142,13 @@
       <c r="AA190" s="26"/>
     </row>
     <row r="191" spans="1:27">
-      <c r="A191" s="39"/>
-      <c r="B191" s="23"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="23"/>
-      <c r="E191" s="23"/>
-      <c r="F191" s="41"/>
-      <c r="G191" s="23"/>
+      <c r="A191" s="42"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="43"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="38"/>
+      <c r="G191" s="27"/>
       <c r="H191" s="26"/>
       <c r="I191" s="26"/>
       <c r="J191" s="26"/>
@@ -7793,13 +8171,13 @@
       <c r="AA191" s="26"/>
     </row>
     <row r="192" spans="1:27">
-      <c r="A192" s="39"/>
-      <c r="B192" s="23"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="23"/>
-      <c r="E192" s="23"/>
-      <c r="F192" s="41"/>
-      <c r="G192" s="23"/>
+      <c r="A192" s="42"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="43"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="38"/>
+      <c r="G192" s="27"/>
       <c r="H192" s="26"/>
       <c r="I192" s="26"/>
       <c r="J192" s="26"/>
@@ -7822,13 +8200,13 @@
       <c r="AA192" s="26"/>
     </row>
     <row r="193" spans="1:27">
-      <c r="A193" s="39"/>
-      <c r="B193" s="23"/>
-      <c r="C193" s="42"/>
-      <c r="D193" s="23"/>
-      <c r="E193" s="23"/>
-      <c r="F193" s="41"/>
-      <c r="G193" s="23"/>
+      <c r="A193" s="42"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="43"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="38"/>
+      <c r="G193" s="27"/>
       <c r="H193" s="26"/>
       <c r="I193" s="26"/>
       <c r="J193" s="26"/>
@@ -7849,238 +8227,6 @@
       <c r="Y193" s="26"/>
       <c r="Z193" s="26"/>
       <c r="AA193" s="26"/>
-    </row>
-    <row r="194" spans="1:27">
-      <c r="A194" s="39"/>
-      <c r="B194" s="23"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="23"/>
-      <c r="E194" s="23"/>
-      <c r="F194" s="41"/>
-      <c r="G194" s="23"/>
-      <c r="H194" s="26"/>
-      <c r="I194" s="26"/>
-      <c r="J194" s="26"/>
-      <c r="K194" s="26"/>
-      <c r="L194" s="26"/>
-      <c r="M194" s="26"/>
-      <c r="N194" s="26"/>
-      <c r="O194" s="26"/>
-      <c r="P194" s="26"/>
-      <c r="Q194" s="26"/>
-      <c r="R194" s="26"/>
-      <c r="S194" s="26"/>
-      <c r="T194" s="26"/>
-      <c r="U194" s="26"/>
-      <c r="V194" s="26"/>
-      <c r="W194" s="26"/>
-      <c r="X194" s="26"/>
-      <c r="Y194" s="26"/>
-      <c r="Z194" s="26"/>
-      <c r="AA194" s="26"/>
-    </row>
-    <row r="195" spans="1:27">
-      <c r="A195" s="39"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="23"/>
-      <c r="E195" s="23"/>
-      <c r="F195" s="41"/>
-      <c r="G195" s="23"/>
-      <c r="H195" s="26"/>
-      <c r="I195" s="26"/>
-      <c r="J195" s="26"/>
-      <c r="K195" s="26"/>
-      <c r="L195" s="26"/>
-      <c r="M195" s="26"/>
-      <c r="N195" s="26"/>
-      <c r="O195" s="26"/>
-      <c r="P195" s="26"/>
-      <c r="Q195" s="26"/>
-      <c r="R195" s="26"/>
-      <c r="S195" s="26"/>
-      <c r="T195" s="26"/>
-      <c r="U195" s="26"/>
-      <c r="V195" s="26"/>
-      <c r="W195" s="26"/>
-      <c r="X195" s="26"/>
-      <c r="Y195" s="26"/>
-      <c r="Z195" s="26"/>
-      <c r="AA195" s="26"/>
-    </row>
-    <row r="196" spans="1:27">
-      <c r="A196" s="39"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="23"/>
-      <c r="E196" s="23"/>
-      <c r="F196" s="41"/>
-      <c r="G196" s="23"/>
-      <c r="H196" s="26"/>
-      <c r="I196" s="26"/>
-      <c r="J196" s="26"/>
-      <c r="K196" s="26"/>
-      <c r="L196" s="26"/>
-      <c r="M196" s="26"/>
-      <c r="N196" s="26"/>
-      <c r="O196" s="26"/>
-      <c r="P196" s="26"/>
-      <c r="Q196" s="26"/>
-      <c r="R196" s="26"/>
-      <c r="S196" s="26"/>
-      <c r="T196" s="26"/>
-      <c r="U196" s="26"/>
-      <c r="V196" s="26"/>
-      <c r="W196" s="26"/>
-      <c r="X196" s="26"/>
-      <c r="Y196" s="26"/>
-      <c r="Z196" s="26"/>
-      <c r="AA196" s="26"/>
-    </row>
-    <row r="197" spans="1:27">
-      <c r="A197" s="39"/>
-      <c r="B197" s="23"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="23"/>
-      <c r="E197" s="23"/>
-      <c r="F197" s="41"/>
-      <c r="G197" s="23"/>
-      <c r="H197" s="26"/>
-      <c r="I197" s="26"/>
-      <c r="J197" s="26"/>
-      <c r="K197" s="26"/>
-      <c r="L197" s="26"/>
-      <c r="M197" s="26"/>
-      <c r="N197" s="26"/>
-      <c r="O197" s="26"/>
-      <c r="P197" s="26"/>
-      <c r="Q197" s="26"/>
-      <c r="R197" s="26"/>
-      <c r="S197" s="26"/>
-      <c r="T197" s="26"/>
-      <c r="U197" s="26"/>
-      <c r="V197" s="26"/>
-      <c r="W197" s="26"/>
-      <c r="X197" s="26"/>
-      <c r="Y197" s="26"/>
-      <c r="Z197" s="26"/>
-      <c r="AA197" s="26"/>
-    </row>
-    <row r="198" spans="1:27">
-      <c r="A198" s="39"/>
-      <c r="B198" s="23"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="23"/>
-      <c r="E198" s="23"/>
-      <c r="F198" s="41"/>
-      <c r="G198" s="23"/>
-      <c r="H198" s="26"/>
-      <c r="I198" s="26"/>
-      <c r="J198" s="26"/>
-      <c r="K198" s="26"/>
-      <c r="L198" s="26"/>
-      <c r="M198" s="26"/>
-      <c r="N198" s="26"/>
-      <c r="O198" s="26"/>
-      <c r="P198" s="26"/>
-      <c r="Q198" s="26"/>
-      <c r="R198" s="26"/>
-      <c r="S198" s="26"/>
-      <c r="T198" s="26"/>
-      <c r="U198" s="26"/>
-      <c r="V198" s="26"/>
-      <c r="W198" s="26"/>
-      <c r="X198" s="26"/>
-      <c r="Y198" s="26"/>
-      <c r="Z198" s="26"/>
-      <c r="AA198" s="26"/>
-    </row>
-    <row r="199" spans="1:27">
-      <c r="A199" s="39"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="42"/>
-      <c r="D199" s="23"/>
-      <c r="E199" s="23"/>
-      <c r="F199" s="41"/>
-      <c r="G199" s="23"/>
-      <c r="H199" s="26"/>
-      <c r="I199" s="26"/>
-      <c r="J199" s="26"/>
-      <c r="K199" s="26"/>
-      <c r="L199" s="26"/>
-      <c r="M199" s="26"/>
-      <c r="N199" s="26"/>
-      <c r="O199" s="26"/>
-      <c r="P199" s="26"/>
-      <c r="Q199" s="26"/>
-      <c r="R199" s="26"/>
-      <c r="S199" s="26"/>
-      <c r="T199" s="26"/>
-      <c r="U199" s="26"/>
-      <c r="V199" s="26"/>
-      <c r="W199" s="26"/>
-      <c r="X199" s="26"/>
-      <c r="Y199" s="26"/>
-      <c r="Z199" s="26"/>
-      <c r="AA199" s="26"/>
-    </row>
-    <row r="200" spans="1:27">
-      <c r="A200" s="39"/>
-      <c r="B200" s="23"/>
-      <c r="C200" s="42"/>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="F200" s="41"/>
-      <c r="G200" s="23"/>
-      <c r="H200" s="26"/>
-      <c r="I200" s="26"/>
-      <c r="J200" s="26"/>
-      <c r="K200" s="26"/>
-      <c r="L200" s="26"/>
-      <c r="M200" s="26"/>
-      <c r="N200" s="26"/>
-      <c r="O200" s="26"/>
-      <c r="P200" s="26"/>
-      <c r="Q200" s="26"/>
-      <c r="R200" s="26"/>
-      <c r="S200" s="26"/>
-      <c r="T200" s="26"/>
-      <c r="U200" s="26"/>
-      <c r="V200" s="26"/>
-      <c r="W200" s="26"/>
-      <c r="X200" s="26"/>
-      <c r="Y200" s="26"/>
-      <c r="Z200" s="26"/>
-      <c r="AA200" s="26"/>
-    </row>
-    <row r="201" spans="1:27">
-      <c r="A201" s="39"/>
-      <c r="B201" s="23"/>
-      <c r="C201" s="42"/>
-      <c r="D201" s="23"/>
-      <c r="E201" s="23"/>
-      <c r="F201" s="41"/>
-      <c r="G201" s="23"/>
-      <c r="H201" s="26"/>
-      <c r="I201" s="26"/>
-      <c r="J201" s="26"/>
-      <c r="K201" s="26"/>
-      <c r="L201" s="26"/>
-      <c r="M201" s="26"/>
-      <c r="N201" s="26"/>
-      <c r="O201" s="26"/>
-      <c r="P201" s="26"/>
-      <c r="Q201" s="26"/>
-      <c r="R201" s="26"/>
-      <c r="S201" s="26"/>
-      <c r="T201" s="26"/>
-      <c r="U201" s="26"/>
-      <c r="V201" s="26"/>
-      <c r="W201" s="26"/>
-      <c r="X201" s="26"/>
-      <c r="Y201" s="26"/>
-      <c r="Z201" s="26"/>
-      <c r="AA201" s="26"/>
     </row>
   </sheetData>
 </worksheet>
